--- a/reports/vivado/CodeHoistingSolution/power/CodeHoistingLogicPowerReport.xlsx
+++ b/reports/vivado/CodeHoistingSolution/power/CodeHoistingLogicPowerReport.xlsx
@@ -3269,7 +3269,7 @@
         <v>21.192306518554688</v>
       </c>
       <c r="G81" t="n" s="2">
-        <v>20.33139991760254</v>
+        <v>20.331401824951172</v>
       </c>
     </row>
     <row r="82" outlineLevel="1">
@@ -3591,7 +3591,7 @@
         <v>18.69230842590332</v>
       </c>
       <c r="G95" t="n" s="2">
-        <v>18.69155502319336</v>
+        <v>18.691553115844727</v>
       </c>
     </row>
     <row r="96" outlineLevel="1">
@@ -4511,7 +4511,7 @@
         <v>11.038460731506348</v>
       </c>
       <c r="G135" t="n" s="2">
-        <v>51.14711380004883</v>
+        <v>51.14710998535156</v>
       </c>
     </row>
     <row r="136" outlineLevel="1">
@@ -4557,7 +4557,7 @@
         <v>9.80769157409668</v>
       </c>
       <c r="G137" t="n" s="2">
-        <v>38.72270965576172</v>
+        <v>38.72270584106445</v>
       </c>
     </row>
     <row r="138" outlineLevel="1">
@@ -5891,7 +5891,7 @@
         <v>4.615385055541992</v>
       </c>
       <c r="G195" t="n" s="2">
-        <v>55.269866943359375</v>
+        <v>55.269874572753906</v>
       </c>
     </row>
     <row r="196" outlineLevel="1">
@@ -6259,7 +6259,7 @@
         <v>4.0</v>
       </c>
       <c r="G211" t="n" s="2">
-        <v>46.2464485168457</v>
+        <v>46.24645233154297</v>
       </c>
     </row>
     <row r="212" outlineLevel="1">
@@ -6466,7 +6466,7 @@
         <v>3.5</v>
       </c>
       <c r="G220" t="n" s="2">
-        <v>43.77346420288086</v>
+        <v>43.773468017578125</v>
       </c>
     </row>
     <row r="221" outlineLevel="1">
@@ -6627,7 +6627,7 @@
         <v>3.269231081008911</v>
       </c>
       <c r="G227" t="n" s="2">
-        <v>44.57161331176758</v>
+        <v>44.57162094116211</v>
       </c>
     </row>
     <row r="228" outlineLevel="1">
